--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Lgi3</t>
+  </si>
+  <si>
+    <t>Flot1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi3</t>
-  </si>
-  <si>
-    <t>Flot1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +543,10 @@
         <v>4.607313</v>
       </c>
       <c r="I2">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18420866666667</v>
+        <v>11.911367</v>
       </c>
       <c r="N2">
-        <v>69.552626</v>
+        <v>35.734101</v>
       </c>
       <c r="O2">
-        <v>0.3933108221010577</v>
+        <v>0.2917564621783566</v>
       </c>
       <c r="P2">
-        <v>0.3933108221010576</v>
+        <v>0.2917564621783566</v>
       </c>
       <c r="Q2">
-        <v>35.60563532821534</v>
+        <v>18.293132008957</v>
       </c>
       <c r="R2">
-        <v>320.4507179539381</v>
+        <v>164.638188080613</v>
       </c>
       <c r="S2">
-        <v>0.3522158295240836</v>
+        <v>0.2917564621783566</v>
       </c>
       <c r="T2">
-        <v>0.3522158295240836</v>
+        <v>0.2917564621783566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>4.607313</v>
       </c>
       <c r="I3">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>40.566413</v>
       </c>
       <c r="O3">
-        <v>0.2293976541837692</v>
+        <v>0.3312106030076451</v>
       </c>
       <c r="P3">
-        <v>0.2293976541837691</v>
+        <v>0.3312106030076451</v>
       </c>
       <c r="Q3">
         <v>20.76690688647433</v>
@@ -635,10 +635,10 @@
         <v>186.902161978269</v>
       </c>
       <c r="S3">
-        <v>0.2054290920031052</v>
+        <v>0.3312106030076451</v>
       </c>
       <c r="T3">
-        <v>0.2054290920031052</v>
+        <v>0.3312106030076451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,10 +667,10 @@
         <v>4.607313</v>
       </c>
       <c r="I4">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.138044000000001</v>
+        <v>7.266852666666666</v>
       </c>
       <c r="N4">
-        <v>24.414132</v>
+        <v>21.800558</v>
       </c>
       <c r="O4">
-        <v>0.1380586597521672</v>
+        <v>0.1779939468910683</v>
       </c>
       <c r="P4">
-        <v>0.1380586597521672</v>
+        <v>0.1779939468910683</v>
       </c>
       <c r="Q4">
-        <v>12.498171971924</v>
+        <v>11.16022158673933</v>
       </c>
       <c r="R4">
-        <v>112.483547747316</v>
+        <v>100.441994280654</v>
       </c>
       <c r="S4">
-        <v>0.1236336318127007</v>
+        <v>0.1779939468910683</v>
       </c>
       <c r="T4">
-        <v>0.1236336318127007</v>
+        <v>0.1779939468910683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,10 +729,10 @@
         <v>4.607313</v>
       </c>
       <c r="I5">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.10188666666667</v>
+        <v>8.126046000000001</v>
       </c>
       <c r="N5">
-        <v>42.30566</v>
+        <v>24.378138</v>
       </c>
       <c r="O5">
-        <v>0.239232863963006</v>
+        <v>0.19903898792293</v>
       </c>
       <c r="P5">
-        <v>0.2392328639630059</v>
+        <v>0.19903898792293</v>
       </c>
       <c r="Q5">
-        <v>21.65726858795334</v>
+        <v>12.479745791466</v>
       </c>
       <c r="R5">
-        <v>194.91541729158</v>
+        <v>112.317712123194</v>
       </c>
       <c r="S5">
-        <v>0.2142366721058648</v>
+        <v>0.19903898792293</v>
       </c>
       <c r="T5">
-        <v>0.2142366721058648</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.179187</v>
-      </c>
-      <c r="H6">
-        <v>0.537561</v>
-      </c>
-      <c r="I6">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="J6">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>23.18420866666667</v>
-      </c>
-      <c r="N6">
-        <v>69.552626</v>
-      </c>
-      <c r="O6">
-        <v>0.3933108221010577</v>
-      </c>
-      <c r="P6">
-        <v>0.3933108221010576</v>
-      </c>
-      <c r="Q6">
-        <v>4.154308798353999</v>
-      </c>
-      <c r="R6">
-        <v>37.388779185186</v>
-      </c>
-      <c r="S6">
-        <v>0.04109499257697402</v>
-      </c>
-      <c r="T6">
-        <v>0.04109499257697401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.179187</v>
-      </c>
-      <c r="H7">
-        <v>0.537561</v>
-      </c>
-      <c r="I7">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="J7">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>13.52213766666667</v>
-      </c>
-      <c r="N7">
-        <v>40.566413</v>
-      </c>
-      <c r="O7">
-        <v>0.2293976541837692</v>
-      </c>
-      <c r="P7">
-        <v>0.2293976541837691</v>
-      </c>
-      <c r="Q7">
-        <v>2.422991282077</v>
-      </c>
-      <c r="R7">
-        <v>21.806921538693</v>
-      </c>
-      <c r="S7">
-        <v>0.02396856218066392</v>
-      </c>
-      <c r="T7">
-        <v>0.02396856218066392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.179187</v>
-      </c>
-      <c r="H8">
-        <v>0.537561</v>
-      </c>
-      <c r="I8">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="J8">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>8.138044000000001</v>
-      </c>
-      <c r="N8">
-        <v>24.414132</v>
-      </c>
-      <c r="O8">
-        <v>0.1380586597521672</v>
-      </c>
-      <c r="P8">
-        <v>0.1380586597521672</v>
-      </c>
-      <c r="Q8">
-        <v>1.458231690228</v>
-      </c>
-      <c r="R8">
-        <v>13.124085212052</v>
-      </c>
-      <c r="S8">
-        <v>0.0144250279394665</v>
-      </c>
-      <c r="T8">
-        <v>0.0144250279394665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.179187</v>
-      </c>
-      <c r="H9">
-        <v>0.537561</v>
-      </c>
-      <c r="I9">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="J9">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>14.10188666666667</v>
-      </c>
-      <c r="N9">
-        <v>42.30566</v>
-      </c>
-      <c r="O9">
-        <v>0.239232863963006</v>
-      </c>
-      <c r="P9">
-        <v>0.2392328639630059</v>
-      </c>
-      <c r="Q9">
-        <v>2.52687476614</v>
-      </c>
-      <c r="R9">
-        <v>22.74187289526</v>
-      </c>
-      <c r="S9">
-        <v>0.02499619185714119</v>
-      </c>
-      <c r="T9">
-        <v>0.02499619185714119</v>
+        <v>0.19903898792293</v>
       </c>
     </row>
   </sheetData>
